--- a/src/IO/DMCFlossData.xlsx
+++ b/src/IO/DMCFlossData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\Random Projects\Cross Stitch Pattern Image Converter\src\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD842E-E0C8-474F-8BCC-411DAB61852C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9950E7-E272-47BD-A4FA-C3B9E39A5D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4D7480-6AE5-4730-BDD5-4EBD008008DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6553,7 +6553,7 @@
   <dimension ref="A1:D520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
